--- a/Jukebox.xlsx
+++ b/Jukebox.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\426\Raspberry\Jukebox-V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5281B96-BE10-4F6A-B377-C967EC8C3EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967B1E9C-E740-4374-8EC2-64AA2986F5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="782" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" tabRatio="782" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Setup Raspberry" sheetId="10" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="318">
   <si>
     <t>Partie App</t>
   </si>
@@ -1134,19 +1134,10 @@
     <t>Animation au DragNDrop : jsp a quoi je pensais. Peut être eclairer les zone où on peut déposer</t>
   </si>
   <si>
-    <t>Quand edit cd, si on change une valeur, ça change dans l'affichage derriere : blc car c'est pour moi</t>
-  </si>
-  <si>
     <t>Font</t>
   </si>
   <si>
     <t>Electronique</t>
-  </si>
-  <si>
-    <t>Click sur la fleche lance le son, en dessous popup</t>
-  </si>
-  <si>
-    <t>amélrioer</t>
   </si>
   <si>
     <t>Raspberry</t>
@@ -2187,7 +2178,7 @@
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="51" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C16" s="52" t="s">
         <v>188</v>
@@ -2296,10 +2287,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9697DB91-DDD7-46C2-9F18-DA7F9F25DA1F}">
-  <dimension ref="B2:N20"/>
+  <dimension ref="B2:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -2310,7 +2301,7 @@
   <sheetData>
     <row r="2" spans="2:14">
       <c r="B2" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="2:14">
@@ -2341,7 +2332,7 @@
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="23" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="2:14">
@@ -2361,7 +2352,7 @@
     </row>
     <row r="15" spans="2:14">
       <c r="B15" s="23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="2:14">
@@ -2369,22 +2360,9 @@
         <v>310</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" t="s">
-        <v>315</v>
-      </c>
-      <c r="C20" t="s">
-        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -3064,7 +3042,7 @@
         <v>46</v>
       </c>
       <c r="D3" s="65" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -3075,7 +3053,7 @@
         <v>48</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="2:4">

--- a/Jukebox.xlsx
+++ b/Jukebox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\426\Raspberry\Jukebox-V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967B1E9C-E740-4374-8EC2-64AA2986F5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38BF462-ED47-4DEF-A03B-80795AE5DA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" tabRatio="782" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="316">
   <si>
     <t>Partie App</t>
   </si>
@@ -1126,12 +1126,6 @@
   </si>
   <si>
     <t>Un peu lente pour le projet</t>
-  </si>
-  <si>
-    <t>onDrop : tous les cd clignotent</t>
-  </si>
-  <si>
-    <t>Animation au DragNDrop : jsp a quoi je pensais. Peut être eclairer les zone où on peut déposer</t>
   </si>
   <si>
     <t>Font</t>
@@ -2178,7 +2172,7 @@
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="51" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C16" s="52" t="s">
         <v>188</v>
@@ -2287,10 +2281,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9697DB91-DDD7-46C2-9F18-DA7F9F25DA1F}">
-  <dimension ref="B2:N17"/>
+  <dimension ref="B2:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:C20"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -2301,7 +2295,7 @@
   <sheetData>
     <row r="2" spans="2:14">
       <c r="B2" s="23" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="2:14">
@@ -2332,7 +2326,7 @@
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="23" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="2:14">
@@ -2352,17 +2346,7 @@
     </row>
     <row r="15" spans="2:14">
       <c r="B15" s="23" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14">
-      <c r="B16" t="s">
         <v>310</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -3042,7 +3026,7 @@
         <v>46</v>
       </c>
       <c r="D3" s="65" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -3053,7 +3037,7 @@
         <v>48</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="2:4">

--- a/Jukebox.xlsx
+++ b/Jukebox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\426\Raspberry\Jukebox-V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38BF462-ED47-4DEF-A03B-80795AE5DA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E752DDF1-4627-46A0-A918-E34E05A5DE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" tabRatio="782" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="317">
   <si>
     <t>Partie App</t>
   </si>
@@ -1144,6 +1144,9 @@
   </si>
   <si>
     <t>(permet de démarrer l'app au lancement de la rasp)</t>
+  </si>
+  <si>
+    <t>Tous les cd se refresh quand on dragNdrop</t>
   </si>
 </sst>
 </file>
@@ -2281,10 +2284,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9697DB91-DDD7-46C2-9F18-DA7F9F25DA1F}">
-  <dimension ref="B2:N15"/>
+  <dimension ref="B2:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -2347,6 +2350,11 @@
     <row r="15" spans="2:14">
       <c r="B15" s="23" t="s">
         <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/Jukebox.xlsx
+++ b/Jukebox.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\426\Raspberry\Jukebox-V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E752DDF1-4627-46A0-A918-E34E05A5DE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D13F9D-7BD2-4D91-BEC5-9950A56F6837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" tabRatio="782" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="782" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Setup Raspberry" sheetId="10" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="318">
   <si>
     <t>Partie App</t>
   </si>
@@ -1147,6 +1147,9 @@
   </si>
   <si>
     <t>Tous les cd se refresh quand on dragNdrop</t>
+  </si>
+  <si>
+    <t>Orange Pi Zero 2</t>
   </si>
 </sst>
 </file>
@@ -2284,10 +2287,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9697DB91-DDD7-46C2-9F18-DA7F9F25DA1F}">
-  <dimension ref="B2:N16"/>
+  <dimension ref="B2:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -2355,6 +2358,11 @@
     <row r="16" spans="2:14">
       <c r="B16" t="s">
         <v>316</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/Jukebox.xlsx
+++ b/Jukebox.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\426\Raspberry\Jukebox-V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D13F9D-7BD2-4D91-BEC5-9950A56F6837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73751954-7C21-411C-A0AC-A53187CD5DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="782" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="782" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Setup Raspberry" sheetId="10" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="338">
   <si>
     <t>Partie App</t>
   </si>
@@ -1151,12 +1151,72 @@
   <si>
     <t>Orange Pi Zero 2</t>
   </si>
+  <si>
+    <t>Se connecter en wifi : sudo raspi-config, system option, WLAN</t>
+  </si>
+  <si>
+    <t>Installer docker</t>
+  </si>
+  <si>
+    <t>1. Assure-toi que ton système est à jour :</t>
+  </si>
+  <si>
+    <t>sudo apt update &amp;&amp; sudo apt upgrade -y</t>
+  </si>
+  <si>
+    <t>2. Installe les dépendances :</t>
+  </si>
+  <si>
+    <t>sudo apt install -y ca-certificates curl gnupg lsb-release</t>
+  </si>
+  <si>
+    <t>3. Ajoute la clé GPG officielle de Docker :</t>
+  </si>
+  <si>
+    <t>sudo mkdir -p /etc/apt/keyrings</t>
+  </si>
+  <si>
+    <t>curl -fsSL https://download.docker.com/linux/debian/gpg | sudo gpg --dearmor -o /etc/apt/keyrings/docker.gpg</t>
+  </si>
+  <si>
+    <t>4. Ajoute le dépôt Docker compatible ARM :</t>
+  </si>
+  <si>
+    <t>echo \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "deb [arch=armhf signed-by=/etc/apt/keyrings/docker.gpg] https://download.docker.com/linux/debian \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  $(lsb_release -cs) stable" | \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  sudo tee /etc/apt/sources.list.d/docker.list &gt; /dev/null</t>
+  </si>
+  <si>
+    <t>5. Met à jour les paquets avec le nouveau dépôt :</t>
+  </si>
+  <si>
+    <t>sudo apt update</t>
+  </si>
+  <si>
+    <t>6. Installe Docker Engine :</t>
+  </si>
+  <si>
+    <t>sudo apt install -y docker-ce docker-ce-cli containerd.io docker-buildx-plugin docker-compose-plugin</t>
+  </si>
+  <si>
+    <t>Eteindre la carte</t>
+  </si>
+  <si>
+    <t>poweroff</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1244,6 +1304,11 @@
     <font>
       <sz val="11"/>
       <name val="Calibri "/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1455,7 +1520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
@@ -1604,6 +1669,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2065,220 +2139,302 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D27CBA-C962-412E-89DF-8B48ECA28584}">
-  <dimension ref="B1:C32"/>
+  <dimension ref="B1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="43.5546875" customWidth="1"/>
     <col min="3" max="3" width="102.44140625" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" customWidth="1"/>
+    <col min="7" max="7" width="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15" thickBot="1"/>
-    <row r="2" spans="2:3" ht="15" thickBot="1">
-      <c r="B2" s="45" t="s">
+    <row r="1" spans="2:7" ht="15" thickBot="1"/>
+    <row r="2" spans="2:7" ht="15" thickBot="1">
+      <c r="F2" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="G2" s="46" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="41" t="s">
+    <row r="3" spans="2:7">
+      <c r="B3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F3" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="G3" s="44" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="47" t="s">
+    <row r="4" spans="2:7">
+      <c r="F4" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="G4" s="48" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="15">
-      <c r="B5" s="37" t="s">
+    <row r="5" spans="2:7" ht="15">
+      <c r="F5" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="G5" s="38" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="15">
-      <c r="B6" s="39"/>
-      <c r="C6" s="40" t="s">
+    <row r="6" spans="2:7" ht="15">
+      <c r="F6" s="39"/>
+      <c r="G6" s="40" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="15">
-      <c r="B7" s="39"/>
-      <c r="C7" s="40" t="s">
+    <row r="7" spans="2:7" ht="15">
+      <c r="F7" s="39"/>
+      <c r="G7" s="40" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="15">
-      <c r="B8" s="39"/>
-      <c r="C8" s="40" t="s">
+    <row r="8" spans="2:7" ht="15">
+      <c r="F8" s="39"/>
+      <c r="G8" s="40" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="15">
-      <c r="B9" s="39"/>
-      <c r="C9" s="40" t="s">
+    <row r="9" spans="2:7" ht="15">
+      <c r="B9" t="s">
+        <v>318</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="15">
-      <c r="B10" s="39"/>
-      <c r="C10" s="40" t="s">
+    <row r="10" spans="2:7" ht="15">
+      <c r="B10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>320</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="15">
-      <c r="B11" s="39"/>
-      <c r="C11" s="40" t="s">
+    <row r="11" spans="2:7" ht="15">
+      <c r="C11" s="69" t="s">
+        <v>321</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="G11" s="40" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="15">
-      <c r="B12" s="41"/>
-      <c r="C12" s="42" t="s">
+    <row r="12" spans="2:7" ht="15">
+      <c r="C12" s="67" t="s">
+        <v>322</v>
+      </c>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="15">
-      <c r="B13" s="47" t="s">
+    <row r="13" spans="2:7" ht="15">
+      <c r="C13" s="69" t="s">
+        <v>323</v>
+      </c>
+      <c r="F13" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="G13" s="66" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="15">
-      <c r="B14" s="36" t="s">
+    <row r="14" spans="2:7" ht="15">
+      <c r="C14" s="67" t="s">
+        <v>324</v>
+      </c>
+      <c r="F14" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="G14" s="43" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="49" t="s">
+    <row r="15" spans="2:7">
+      <c r="C15" s="69" t="s">
+        <v>325</v>
+      </c>
+      <c r="F15" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="G15" s="50" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="51" t="s">
+    <row r="16" spans="2:7">
+      <c r="C16" s="69" t="s">
+        <v>326</v>
+      </c>
+      <c r="F16" s="51" t="s">
         <v>315</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="G16" s="52" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="51"/>
-      <c r="C17" s="52" t="s">
+    <row r="17" spans="3:7">
+      <c r="C17" s="67" t="s">
+        <v>327</v>
+      </c>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="51"/>
-      <c r="C18" s="52" t="s">
+    <row r="18" spans="3:7">
+      <c r="C18" s="69" t="s">
+        <v>328</v>
+      </c>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="51"/>
-      <c r="C19" s="52" t="s">
+    <row r="19" spans="3:7">
+      <c r="C19" s="69" t="s">
+        <v>329</v>
+      </c>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="51"/>
-      <c r="C20" s="52" t="s">
+    <row r="20" spans="3:7">
+      <c r="C20" s="69" t="s">
+        <v>330</v>
+      </c>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="51"/>
-      <c r="C21" s="52" t="s">
+    <row r="21" spans="3:7">
+      <c r="C21" s="69" t="s">
+        <v>331</v>
+      </c>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="51"/>
-      <c r="C22" s="52" t="s">
+    <row r="22" spans="3:7">
+      <c r="C22" s="67" t="s">
+        <v>332</v>
+      </c>
+      <c r="F22" s="51"/>
+      <c r="G22" s="52" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="51"/>
-      <c r="C23" s="52" t="s">
+    <row r="23" spans="3:7">
+      <c r="C23" s="69" t="s">
+        <v>333</v>
+      </c>
+      <c r="F23" s="51"/>
+      <c r="G23" s="52" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="51"/>
-      <c r="C24" s="52" t="s">
+    <row r="24" spans="3:7">
+      <c r="C24" s="67" t="s">
+        <v>334</v>
+      </c>
+      <c r="F24" s="51"/>
+      <c r="G24" s="52" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="51"/>
-      <c r="C25" s="52" t="s">
+    <row r="25" spans="3:7">
+      <c r="C25" s="69" t="s">
+        <v>335</v>
+      </c>
+      <c r="F25" s="51"/>
+      <c r="G25" s="52" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="51"/>
-      <c r="C26" s="52" t="s">
+    <row r="26" spans="3:7">
+      <c r="F26" s="51"/>
+      <c r="G26" s="52" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="51"/>
-      <c r="C27" s="52"/>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="51"/>
-      <c r="C28" s="52" t="s">
+    <row r="27" spans="3:7">
+      <c r="F27" s="51"/>
+      <c r="G27" s="52"/>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="F28" s="51"/>
+      <c r="G28" s="52" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="51"/>
-      <c r="C29" s="52" t="s">
+    <row r="29" spans="3:7">
+      <c r="F29" s="51"/>
+      <c r="G29" s="52" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="51"/>
-      <c r="C30" s="52" t="s">
+    <row r="30" spans="3:7">
+      <c r="C30" s="32"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="52" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="51"/>
-      <c r="C31" s="54" t="s">
+    <row r="31" spans="3:7">
+      <c r="F31" s="51"/>
+      <c r="G31" s="54" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
-      <c r="B32" s="36" t="s">
+    <row r="32" spans="3:7">
+      <c r="C32" s="68"/>
+      <c r="F32" s="36" t="s">
         <v>308</v>
       </c>
-      <c r="C32" s="53" t="s">
+      <c r="G32" s="53" t="s">
         <v>307</v>
       </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="69"/>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="69"/>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="32"/>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="68"/>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="69"/>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="69"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2289,7 +2445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9697DB91-DDD7-46C2-9F18-DA7F9F25DA1F}">
   <dimension ref="B2:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>

--- a/Jukebox.xlsx
+++ b/Jukebox.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Reprise" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Taches en cours" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Setup Raspberry" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Tâches Raspberry Mécanique" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Techno" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Tâches app" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Mache à état" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Cahier des charges" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Archive - Taches en cours" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Archive - Setup Raspberry" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Archive - Tâches Raspberry Méca" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Archive - Techno" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Archive - Tâches app" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Archive - Mache à état" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Archive - Cahier des charges" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr/>
   <extLst>
@@ -23,18 +23,189 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="342">
-  <si>
-    <t xml:space="preserve">Récupérer imprimante 3D HS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S'inspirer pour modé 3D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suite, voir page Tâches en cours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jukebox, idée de mettre un lecteur sous chaque cd ? </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="396">
+  <si>
+    <t xml:space="preserve">Jukebox : se poser avec feuille et réfléchir sur le lecteur, prévoir taff dans les prochains jours, dessin du rendu final, s'aider de ce qui existe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filmer les anvancées avec les pièces 3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etapes Construction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etapes Modé 3D</t>
+  </si>
+  <si>
+    <t>Etapes</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Pièce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tester accroche CD</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A chaque fois tester les dimensions avant les pièces entières</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tester prise CD avec electro aimant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixer elecamant sur déplacement Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tester déplacement elec aimant Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixer déplacementZ sur armature imprimante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pièce OK mais tester deplacement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tester déplacement X et Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nickel !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pièce sur CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support cd avec plaque metal, faire un bout qui depasse, pour centrer le cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plaque avec support Cds et lecteur, prévoir place lecteur !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ralonge câbles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modéliser rendu final, pour voir où placer quoi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prévoir tiges? pour fixer armature à planche, avec une certaine distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPRIMER PIECES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construire machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etapes programmation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pièces 3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Déplacement X Y manuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pièce globale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pièce 3D</t>
+  </si>
+  <si>
+    <t>Précision</t>
+  </si>
+  <si>
+    <t>Dimensions2</t>
+  </si>
+  <si>
+    <t>Colonne5</t>
+  </si>
+  <si>
+    <t>Colonne1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Déplacement Z manuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STL Prêt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prise CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pièce dos cd avec aimant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contrôle électro aimant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largeur tube dans cd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,48cm pour une largeur de 1,5cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largeur tige qui va dans le plateau du lecteur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,57cm pour une largeur de 0,6cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lien Docker Pins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chanfrein pour épouser la forme du plateau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,8cm pour une largent de 1,8cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pièce face cd avec rondelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pb lecteur, le changer ??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A faire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREVOIR DES DETECTEURS DE FIN DE COURSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construire stucture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculer nb step pour chaque positions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prêt, j'ai déjà la pièce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support pose cd sur mur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code général : machine à état</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une fois que tout fonctionne manuellement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utiliser les plateaux de lecteurs aimantés</t>
+  </si>
+  <si>
+    <t>AliExpress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Déplacement elec aimant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR2ER IMAGE DE LA CARTE SD DE LA RASPBERRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V2RIFIER README</t>
   </si>
   <si>
     <t>Electronique</t>
@@ -586,18 +757,12 @@
     <t xml:space="preserve">Raspberry PI 3B</t>
   </si>
   <si>
-    <t xml:space="preserve">Un peu lente pour le projet</t>
-  </si>
-  <si>
     <t xml:space="preserve">Partie App Frontend</t>
   </si>
   <si>
     <t>Priorité</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t xml:space="preserve">Créer page accueil</t>
   </si>
   <si>
@@ -983,9 +1148,6 @@
   </si>
   <si>
     <t xml:space="preserve">Partie Raspberry</t>
-  </si>
-  <si>
-    <t>Colonne1</t>
   </si>
   <si>
     <t>1.1</t>
@@ -1193,10 +1355,46 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="18">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.000000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -1262,12 +1460,78 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF92D050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor theme="9" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor theme="5" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor theme="5" tint="0.39997558519241921"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1289,22 +1553,76 @@
         <fgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor theme="6" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right style="none"/>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
       <right style="none"/>
       <top style="none"/>
       <bottom style="none"/>
@@ -1439,117 +1757,129 @@
       </bottom>
       <diagonal style="none"/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </left>
-      <right style="none"/>
-      <top style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="94">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="2" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="1" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="4" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="5" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="6" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="1" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="1" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="12" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="13" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="13" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="13" borderId="11" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="13" borderId="12" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="13" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="8" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="2" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="15" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="8" fillId="0" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="8" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="2" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="8" fillId="13" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="2" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="8" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="9" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="10" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="13" borderId="13" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="13" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="13" borderId="15" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="13" borderId="16" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="13" borderId="10" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="17" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf fontId="0" fillId="14" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf fontId="0" fillId="15" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="3" vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="10" fillId="14" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="11" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="12" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2" vertical="center"/>
     </xf>
-    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="13" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="14" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf fontId="0" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
@@ -1561,7 +1891,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="15" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
@@ -1570,38 +1900,38 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="4" wrapText="1"/>
     </xf>
-    <xf fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="16" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="16" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="4" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf fontId="0" fillId="15" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="0" fillId="15" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="14" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="11" fillId="6" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="7" borderId="12" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="17" fillId="3" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="6" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf fontId="11" fillId="6" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="13" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="7" borderId="13" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="17" fillId="3" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="6" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="15" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="16" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf fontId="11" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="17" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
@@ -1610,17 +1940,17 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="11" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
@@ -1678,7 +2008,80 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Tableau6" ref="C4:H64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Tableau1" ref="E25:K41">
+  <autoFilter ref="E25:K41"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Status"/>
+    <tableColumn id="2" name="Pièce globale"/>
+    <tableColumn id="3" name="Pièce 3D"/>
+    <tableColumn id="4" name="Précision"/>
+    <tableColumn id="5" name="Dimensions2"/>
+    <tableColumn id="6" name="Colonne5"/>
+    <tableColumn id="7" name="Colonne1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" displayName="Tableau2" ref="D4:E30">
+  <autoFilter ref="D4:E30"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Partie App" dataDxfId="9"/>
+    <tableColumn id="2" name="Priorité" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" displayName="Tableau3" ref="C39:F88">
+  <autoFilter ref="C39:F88"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="US"/>
+    <tableColumn id="2" name="Partie Raspberry"/>
+    <tableColumn id="3" name="Priorité"/>
+    <tableColumn id="4" name="Colonne1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" displayName="Tableau4" ref="B9:C20">
+  <autoFilter ref="B9:C20"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Etapes"/>
+    <tableColumn id="2" name="Status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" displayName="Tableau5" ref="E9:F18">
+  <autoFilter ref="E9:F18"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Pièce"/>
+    <tableColumn id="2" name="Status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" displayName="Tableau8" ref="B24:C45">
+  <autoFilter ref="B24:C45"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Etapes"/>
+    <tableColumn id="2" name="Status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" displayName="Tableau6" ref="C4:H64">
   <autoFilter ref="C4:H64"/>
   <tableColumns count="6">
     <tableColumn id="1" name="N° CDC" dataDxfId="0"/>
@@ -1692,8 +2095,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" displayName="Tableau25" ref="C5:E32">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" displayName="Tableau25" ref="C5:E32">
   <autoFilter ref="C5:E32"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Partie App Frontend" dataDxfId="6"/>
@@ -1704,8 +2107,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" displayName="Tableau36" ref="C35:E58">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" displayName="Tableau36" ref="C35:E58">
   <autoFilter ref="C35:E58"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Partie App Backend"/>
@@ -1716,8 +2119,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" displayName="Tableau7" ref="E5:K28">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" displayName="Tableau7" ref="E5:K28">
   <autoFilter ref="E5:K28"/>
   <tableColumns count="7">
     <tableColumn id="1" name="GoToOrigin"/>
@@ -1732,38 +2135,14 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" displayName="Tableau9" ref="A5:B16">
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" displayName="Tableau9" ref="A5:B16">
   <autoFilter ref="A5:B16"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Variables"/>
     <tableColumn id="2" name="Explocation"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" displayName="Tableau2" ref="D4:E30">
-  <autoFilter ref="D4:E30"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Partie App" dataDxfId="9"/>
-    <tableColumn id="2" name="Priorité" dataDxfId="10"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" displayName="Tableau3" ref="C39:F88">
-  <autoFilter ref="C39:F88"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="US"/>
-    <tableColumn id="2" name="Partie Raspberry"/>
-    <tableColumn id="3" name="Priorité"/>
-    <tableColumn id="4" name="Colonne1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2248,37 +2627,903 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="9.140625"/>
+    <col customWidth="1" min="2" max="2" width="63.7109375"/>
+    <col customWidth="1" min="3" max="3" width="52.57421875"/>
+    <col bestFit="1" customWidth="1" min="4" max="4" width="39.11328125"/>
+    <col customWidth="1" min="5" max="5" width="60.00390625"/>
+    <col customWidth="1" min="6" max="6" width="38.57421875"/>
+    <col customWidth="1" min="7" max="7" width="26.421875"/>
+    <col customWidth="1" min="8" max="8" width="43.57421875"/>
+    <col customWidth="1" min="9" max="9" width="32.57421875"/>
+    <col customWidth="1" min="10" max="11" width="9.140625"/>
+  </cols>
   <sheetData>
-    <row r="3" ht="14.25">
-      <c r="B3" t="s">
+    <row r="1" ht="14.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" ht="18.75">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" ht="14.25">
-      <c r="B4" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" ht="18.75">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="B6" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" ht="21">
+      <c r="A7" s="1"/>
+      <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" ht="16.5">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" ht="16.5">
+      <c r="A10" s="1"/>
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" ht="16.5">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" ht="16.5">
+      <c r="A12" s="1"/>
+      <c r="B12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" ht="16.5">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" ht="28.5">
+      <c r="A14" s="1"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" s="1"/>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" s="1"/>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" s="1"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" ht="16.5">
+      <c r="A20" s="1"/>
+      <c r="B20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" ht="21">
+      <c r="A23" s="1"/>
+      <c r="B23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" ht="16.5">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" ht="16.5">
+      <c r="A25" s="1"/>
+      <c r="B25" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5">
+      <c r="A26" s="1"/>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+    </row>
+    <row r="27" ht="16.5">
+      <c r="A27" s="1"/>
+      <c r="B27" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" ht="16.5">
+      <c r="A28" s="1"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+    </row>
+    <row r="29" ht="16.5">
+      <c r="A29" s="1"/>
+      <c r="B29" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" ht="16.5">
+      <c r="A30" s="1"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+    </row>
+    <row r="31" ht="16.5">
+      <c r="A31" s="1"/>
+      <c r="B31" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" ht="16.5">
+      <c r="A32" s="1"/>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+    </row>
+    <row r="33" ht="16.5">
+      <c r="A33" s="1"/>
+      <c r="B33" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" ht="16.5">
+      <c r="A34" s="1"/>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+    </row>
+    <row r="35" ht="16.5">
+      <c r="A35" s="1"/>
+      <c r="B35" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" ht="16.5">
+      <c r="A36" s="1"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+    </row>
+    <row r="37" ht="16.5">
+      <c r="A37" s="1"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" ht="16.5">
+      <c r="A38" s="1"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+    </row>
+    <row r="39" ht="16.5">
+      <c r="A39" s="1"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" ht="16.5">
+      <c r="A40" s="1"/>
+      <c r="B40"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+    </row>
+    <row r="41" ht="16.5">
+      <c r="A41" s="1"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="A42" s="1"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="A44" s="1"/>
+      <c r="B44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" ht="14.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" ht="14.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" ht="16.5">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" ht="16.5">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+    </row>
+    <row r="50" ht="16.5">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" ht="16.5">
+      <c r="A51" s="1"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" ht="16.5">
+      <c r="A52" s="1"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" ht="16.5">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" ht="16.5">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
+  <tableParts count="4">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2296,69 +3541,69 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="1" t="s">
-        <v>4</v>
+      <c r="B2" s="25" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="1" t="s">
-        <v>11</v>
+      <c r="B10" s="25" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
       <c r="N12" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="1" t="s">
-        <v>14</v>
+      <c r="B15" s="25" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2386,286 +3631,286 @@
   <sheetData>
     <row r="1" ht="15"/>
     <row r="2" ht="15">
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>18</v>
+      <c r="F2" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>22</v>
+        <v>77</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="4">
-      <c r="F4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>24</v>
+      <c r="F4" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="5" ht="15">
-      <c r="F5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>26</v>
+      <c r="F5" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="6" ht="15">
-      <c r="F6" s="10"/>
-      <c r="G6" s="11" t="s">
-        <v>27</v>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7" ht="15">
-      <c r="F7" s="10"/>
-      <c r="G7" s="11" t="s">
-        <v>28</v>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8" ht="15">
-      <c r="F8" s="10"/>
-      <c r="G8" s="11" t="s">
-        <v>29</v>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9" ht="15">
       <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11" t="s">
-        <v>31</v>
+        <v>87</v>
+      </c>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10" ht="15">
       <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11" t="s">
-        <v>34</v>
+        <v>89</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="11" ht="15">
-      <c r="C11" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11" t="s">
-        <v>36</v>
+      <c r="C11" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="12" ht="15">
-      <c r="C12" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="14" t="s">
-        <v>38</v>
+      <c r="C12" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="38" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="13" ht="15">
-      <c r="C13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>41</v>
+      <c r="C13" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" ht="15">
-      <c r="C14" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>44</v>
+      <c r="C14" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="15">
-      <c r="C15" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>47</v>
+      <c r="C15" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="16">
-      <c r="C16" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>50</v>
+      <c r="C16" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="17">
-      <c r="C17" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21" t="s">
-        <v>52</v>
+      <c r="C17" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="18">
-      <c r="C18" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21" t="s">
-        <v>54</v>
+      <c r="C18" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="19">
-      <c r="C19" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21" t="s">
-        <v>56</v>
+      <c r="C19" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="44"/>
+      <c r="G19" s="45" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="20">
-      <c r="C20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21" t="s">
-        <v>58</v>
+      <c r="C20" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="21">
-      <c r="C21" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21" t="s">
-        <v>60</v>
+      <c r="C21" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="22">
-      <c r="C22" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21" t="s">
-        <v>62</v>
+      <c r="C22" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="44"/>
+      <c r="G22" s="45" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="23">
-      <c r="C23" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="21" t="s">
-        <v>64</v>
+      <c r="C23" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="44"/>
+      <c r="G23" s="45" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="24">
-      <c r="C24" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="21" t="s">
-        <v>66</v>
+      <c r="C24" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="44"/>
+      <c r="G24" s="45" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="25">
-      <c r="C25" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="21" t="s">
-        <v>68</v>
+      <c r="C25" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="44"/>
+      <c r="G25" s="45" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="26">
-      <c r="F26" s="20"/>
-      <c r="G26" s="21" t="s">
-        <v>69</v>
+      <c r="F26" s="44"/>
+      <c r="G26" s="45" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="27">
-      <c r="F27" s="20"/>
-      <c r="G27" s="21"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="45"/>
     </row>
     <row r="28">
-      <c r="F28" s="20"/>
-      <c r="G28" s="21" t="s">
-        <v>70</v>
+      <c r="F28" s="44"/>
+      <c r="G28" s="45" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="29">
-      <c r="F29" s="20"/>
-      <c r="G29" s="21" t="s">
-        <v>71</v>
+      <c r="F29" s="44"/>
+      <c r="G29" s="45" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" s="22"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="21" t="s">
-        <v>72</v>
+      <c r="C30" s="46"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="45" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="31">
-      <c r="F31" s="20"/>
-      <c r="G31" s="23" t="s">
-        <v>73</v>
+      <c r="F31" s="44"/>
+      <c r="G31" s="47" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" s="24"/>
-      <c r="F32" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>75</v>
+      <c r="C32" s="48"/>
+      <c r="F32" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="G32" s="49" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" s="13"/>
+      <c r="C33" s="37"/>
     </row>
     <row r="34">
-      <c r="C34" s="13"/>
+      <c r="C34" s="37"/>
     </row>
     <row r="36">
-      <c r="C36" s="22"/>
+      <c r="C36" s="46"/>
     </row>
     <row r="38">
-      <c r="C38" s="24"/>
+      <c r="C38" s="48"/>
     </row>
     <row r="39">
-      <c r="C39" s="13"/>
+      <c r="C39" s="37"/>
     </row>
     <row r="40">
-      <c r="C40" s="13"/>
+      <c r="C40" s="37"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -2696,625 +3941,625 @@
   <sheetData>
     <row r="4">
       <c r="C4" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="26">
+      <c r="C5" s="50">
         <v>1</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="27"/>
+      <c r="D5" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="51"/>
     </row>
     <row r="6">
-      <c r="C6" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="27"/>
+      <c r="C6" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="52"/>
+      <c r="H6" s="51"/>
     </row>
     <row r="7">
-      <c r="C7" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="27"/>
+      <c r="C7" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="51"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="51"/>
     </row>
     <row r="8">
-      <c r="C8" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="27"/>
+      <c r="C8" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="51"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="51"/>
     </row>
     <row r="9">
-      <c r="C9" s="27"/>
-      <c r="D9" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="27"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="51"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="51"/>
     </row>
     <row r="10">
-      <c r="C10" s="27"/>
-      <c r="D10" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="27"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="51"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="51"/>
     </row>
     <row r="11">
-      <c r="C11" s="27"/>
-      <c r="D11" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="27"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="51"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="51"/>
     </row>
     <row r="12">
-      <c r="C12" s="27"/>
-      <c r="D12" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="27"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="51"/>
     </row>
     <row r="13">
-      <c r="C13" s="27"/>
-      <c r="D13" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="27"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="51"/>
     </row>
     <row r="14">
-      <c r="C14" s="27"/>
-      <c r="D14" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="27"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="51"/>
     </row>
     <row r="15">
-      <c r="C15" s="27"/>
-      <c r="D15" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="27"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="F15" s="51"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="51"/>
     </row>
     <row r="16">
-      <c r="C16" s="27"/>
-      <c r="D16" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="27"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="51"/>
     </row>
     <row r="17">
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
     </row>
     <row r="18">
-      <c r="C18" s="27"/>
-      <c r="D18" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
     </row>
     <row r="19">
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
     </row>
     <row r="20">
-      <c r="C20" s="26">
+      <c r="C20" s="50">
         <v>2</v>
       </c>
-      <c r="D20" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="33"/>
+      <c r="D20" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="57"/>
     </row>
     <row r="21">
-      <c r="C21" s="27"/>
-      <c r="D21" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="27"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="51"/>
     </row>
     <row r="22">
-      <c r="C22" s="27"/>
-      <c r="D22" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="27"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="51"/>
     </row>
     <row r="23">
-      <c r="C23" s="27"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="27"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="51"/>
     </row>
     <row r="24">
-      <c r="C24" s="26">
+      <c r="C24" s="50">
         <v>3</v>
       </c>
-      <c r="D24" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="27"/>
+      <c r="D24" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="51"/>
     </row>
     <row r="25">
-      <c r="C25" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="27"/>
+      <c r="C25" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="51"/>
     </row>
     <row r="26">
-      <c r="C26" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="27"/>
+      <c r="C26" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="51"/>
     </row>
     <row r="27">
-      <c r="C27" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="27"/>
+      <c r="C27" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="51"/>
     </row>
     <row r="28">
-      <c r="C28" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="27"/>
+      <c r="C28" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="51"/>
     </row>
     <row r="29">
-      <c r="C29" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="27"/>
+      <c r="C29" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="E29" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="F29" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="G29" s="53"/>
+      <c r="H29" s="51"/>
     </row>
     <row r="30">
-      <c r="C30" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="G30" s="29"/>
-      <c r="H30" s="27"/>
+      <c r="C30" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="E30" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="F30" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="G30" s="53"/>
+      <c r="H30" s="51"/>
     </row>
     <row r="31">
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
     </row>
     <row r="32">
-      <c r="C32" s="26">
+      <c r="C32" s="50">
         <v>4</v>
       </c>
-      <c r="D32" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="27"/>
+      <c r="D32" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="51"/>
     </row>
     <row r="33">
-      <c r="C33" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="27"/>
+      <c r="C33" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="51"/>
     </row>
     <row r="34">
-      <c r="C34" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="27"/>
+      <c r="C34" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="D34" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="51"/>
     </row>
     <row r="35">
-      <c r="C35" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="F35" s="27"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="27"/>
+      <c r="C35" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="E35" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="F35" s="51"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="51"/>
     </row>
     <row r="36">
-      <c r="C36" s="27"/>
-      <c r="D36" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="27"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="51"/>
     </row>
     <row r="37">
-      <c r="C37" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="27"/>
+      <c r="C37" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="51"/>
     </row>
     <row r="38">
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
     </row>
     <row r="39">
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
     </row>
     <row r="40">
-      <c r="C40" s="26">
+      <c r="C40" s="50">
         <v>5</v>
       </c>
-      <c r="D40" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
+      <c r="D40" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
     </row>
     <row r="41">
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
     </row>
     <row r="42">
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
     </row>
     <row r="43">
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
     </row>
     <row r="44">
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
     </row>
     <row r="45">
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
     </row>
     <row r="46">
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
     </row>
     <row r="47">
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
     </row>
     <row r="48">
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
     </row>
     <row r="49">
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
     </row>
     <row r="50">
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
     </row>
     <row r="51">
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
     </row>
     <row r="52">
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
     </row>
     <row r="53">
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
     </row>
     <row r="54">
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
     </row>
     <row r="55">
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
     </row>
     <row r="56">
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
     </row>
     <row r="57">
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
     </row>
     <row r="58">
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
     </row>
     <row r="59">
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
     </row>
     <row r="60">
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
     </row>
     <row r="61">
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51"/>
     </row>
     <row r="62">
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="51"/>
     </row>
     <row r="63">
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="51"/>
     </row>
     <row r="64">
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -3341,35 +4586,32 @@
   <sheetData>
     <row r="3">
       <c r="B3" t="s">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>135</v>
+        <v>191</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>138</v>
+        <v>194</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -3394,293 +4636,293 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="37"/>
+      <c r="A1" s="61"/>
     </row>
     <row r="5">
-      <c r="C5" s="38" t="s">
-        <v>142</v>
+      <c r="C5" s="62" t="s">
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>199</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="38">
+        <v>200</v>
+      </c>
+      <c r="D6" s="62">
         <v>1</v>
       </c>
-      <c r="E6" s="39"/>
+      <c r="E6" s="63"/>
     </row>
     <row r="7">
-      <c r="C7" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" s="38">
+      <c r="C7" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="62">
         <v>1</v>
       </c>
-      <c r="E7" s="39"/>
+      <c r="E7" s="63"/>
     </row>
     <row r="8">
-      <c r="C8" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="38">
+      <c r="C8" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="62">
         <v>1</v>
       </c>
-      <c r="E8" s="39"/>
+      <c r="E8" s="63"/>
     </row>
     <row r="9" ht="28.800000000000001">
-      <c r="C9" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="D9" s="38">
+      <c r="C9" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="62">
         <v>1</v>
       </c>
-      <c r="E9" s="39"/>
+      <c r="E9" s="63"/>
     </row>
     <row r="10" ht="28.800000000000001">
-      <c r="C10" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="39"/>
+      <c r="C10" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="66"/>
+      <c r="E10" s="63"/>
     </row>
     <row r="11">
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
     </row>
     <row r="12">
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
     </row>
     <row r="13">
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
     </row>
     <row r="14">
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
     </row>
     <row r="15">
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
     </row>
     <row r="16">
-      <c r="C16" s="43"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="42"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="66"/>
     </row>
     <row r="17">
-      <c r="C17" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="38">
+      <c r="C17" s="64" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" s="62">
         <v>1</v>
       </c>
-      <c r="E17" s="39"/>
+      <c r="E17" s="63"/>
     </row>
     <row r="18">
-      <c r="C18" s="40"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="42"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="66"/>
     </row>
     <row r="19">
-      <c r="C19" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="D19" s="38">
+      <c r="C19" s="68" t="s">
+        <v>206</v>
+      </c>
+      <c r="D19" s="62">
         <v>1</v>
       </c>
-      <c r="E19" s="42"/>
+      <c r="E19" s="66"/>
     </row>
     <row r="20">
-      <c r="C20" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" s="38">
+      <c r="C20" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" s="62">
         <v>1</v>
       </c>
-      <c r="E20" s="39"/>
+      <c r="E20" s="63"/>
     </row>
     <row r="21" ht="28.800000000000001">
-      <c r="C21" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="D21" s="38">
+      <c r="C21" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="D21" s="62">
         <v>1</v>
       </c>
-      <c r="E21" s="39"/>
+      <c r="E21" s="63"/>
     </row>
     <row r="22">
-      <c r="C22" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="D22" s="38">
+      <c r="C22" s="66" t="s">
+        <v>209</v>
+      </c>
+      <c r="D22" s="62">
         <v>1</v>
       </c>
-      <c r="E22" s="39"/>
+      <c r="E22" s="63"/>
     </row>
     <row r="23">
-      <c r="C23" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
+      <c r="C23" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="D23" s="62"/>
+      <c r="E23" s="63"/>
     </row>
     <row r="24" ht="28.800000000000001">
-      <c r="C24" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="D24" s="38">
+      <c r="C24" s="71" t="s">
+        <v>211</v>
+      </c>
+      <c r="D24" s="62">
         <v>1</v>
       </c>
-      <c r="E24" s="39"/>
+      <c r="E24" s="63"/>
     </row>
     <row r="25">
-      <c r="C25" s="42"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="42"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="66"/>
     </row>
     <row r="26" ht="28.800000000000001">
-      <c r="C26" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="D26" s="38">
+      <c r="C26" s="68" t="s">
+        <v>212</v>
+      </c>
+      <c r="D26" s="62">
         <v>1</v>
       </c>
-      <c r="E26" s="39"/>
+      <c r="E26" s="63"/>
     </row>
     <row r="27">
-      <c r="C27" s="40"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="42"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="66"/>
     </row>
     <row r="28">
-      <c r="C28" s="40"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="42"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="66"/>
     </row>
     <row r="29">
-      <c r="C29" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="D29" s="38">
+      <c r="C29" s="64" t="s">
+        <v>213</v>
+      </c>
+      <c r="D29" s="62">
         <v>2</v>
       </c>
-      <c r="E29" s="39"/>
+      <c r="E29" s="63"/>
     </row>
     <row r="30">
-      <c r="C30" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="D30" s="38">
+      <c r="C30" s="64" t="s">
+        <v>214</v>
+      </c>
+      <c r="D30" s="62">
         <v>2</v>
       </c>
-      <c r="E30" s="39"/>
+      <c r="E30" s="63"/>
     </row>
     <row r="31">
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
     </row>
     <row r="32">
-      <c r="C32" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
+      <c r="C32" s="66" t="s">
+        <v>215</v>
+      </c>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
     </row>
     <row r="33" ht="45" customHeight="1"/>
     <row r="35" ht="11.25" customHeight="1">
-      <c r="C35" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="D35" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="E35" s="49" t="s">
-        <v>162</v>
+      <c r="C35" s="72" t="s">
+        <v>216</v>
+      </c>
+      <c r="D35" s="73" t="s">
+        <v>199</v>
+      </c>
+      <c r="E35" s="73" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="36" ht="34.5" customHeight="1">
-      <c r="C36" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="D36" s="38">
+      <c r="C36" s="74" t="s">
+        <v>218</v>
+      </c>
+      <c r="D36" s="62">
         <v>1</v>
       </c>
     </row>
     <row r="37" ht="43.200000000000003">
-      <c r="C37" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D37" s="38">
+      <c r="C37" s="65" t="s">
+        <v>219</v>
+      </c>
+      <c r="D37" s="62">
         <v>1</v>
       </c>
     </row>
     <row r="38" ht="16.5" customHeight="1">
-      <c r="C38" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="D38" s="38">
+      <c r="C38" s="65" t="s">
+        <v>220</v>
+      </c>
+      <c r="D38" s="62">
         <v>1</v>
       </c>
     </row>
     <row r="39" ht="13.5" customHeight="1">
-      <c r="C39" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="D39" s="38">
+      <c r="C39" s="65" t="s">
+        <v>221</v>
+      </c>
+      <c r="D39" s="62">
         <v>1</v>
       </c>
     </row>
     <row r="40">
-      <c r="D40" s="38"/>
+      <c r="D40" s="62"/>
     </row>
     <row r="41">
-      <c r="C41" s="51"/>
-      <c r="D41" s="38"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="62"/>
     </row>
     <row r="42" ht="28.800000000000001">
-      <c r="C42" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="D42" s="38">
+      <c r="C42" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="D42" s="62">
         <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="C43" s="41"/>
-      <c r="D43" s="38"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="62"/>
     </row>
     <row r="44">
-      <c r="C44" s="51"/>
-      <c r="D44" s="38"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="62"/>
     </row>
     <row r="45">
-      <c r="C45" s="51"/>
-      <c r="D45" s="38"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="62"/>
     </row>
     <row r="46">
-      <c r="C46" s="51"/>
-      <c r="D46" s="38"/>
+      <c r="C46" s="75"/>
+      <c r="D46" s="62"/>
     </row>
     <row r="47">
-      <c r="C47" s="51"/>
-      <c r="D47" s="38"/>
+      <c r="C47" s="75"/>
+      <c r="D47" s="62"/>
     </row>
     <row r="48">
-      <c r="D48" s="38"/>
+      <c r="D48" s="62"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -3717,367 +4959,367 @@
   <sheetData>
     <row r="5">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>170</v>
+        <v>224</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>225</v>
       </c>
       <c r="E5" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="F5" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c r="G5" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="H5" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="I5" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="J5" t="s">
-        <v>176</v>
+        <v>231</v>
       </c>
       <c r="K5" t="s">
-        <v>177</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>233</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>180</v>
+        <v>234</v>
+      </c>
+      <c r="D6" s="77" t="s">
+        <v>235</v>
       </c>
       <c r="E6" t="s">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="F6" t="s">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c r="G6" t="s">
-        <v>183</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>184</v>
+        <v>238</v>
+      </c>
+      <c r="H6" s="64" t="s">
+        <v>239</v>
       </c>
       <c r="I6" t="s">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="J6" t="s">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="K6" t="s">
-        <v>187</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>243</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>189</v>
+        <v>234</v>
+      </c>
+      <c r="D7" s="78" t="s">
+        <v>244</v>
       </c>
       <c r="F7" t="s">
-        <v>190</v>
+        <v>245</v>
       </c>
       <c r="G7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>192</v>
+        <v>246</v>
+      </c>
+      <c r="H7" s="64" t="s">
+        <v>247</v>
       </c>
       <c r="K7" t="s">
-        <v>193</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8">
-      <c r="D8" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="G8" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>196</v>
+      <c r="D8" s="77" t="s">
+        <v>249</v>
+      </c>
+      <c r="G8" s="79" t="s">
+        <v>250</v>
+      </c>
+      <c r="H8" s="64" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>197</v>
+        <v>252</v>
       </c>
       <c r="B9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D9" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="H9" s="40" t="s">
-        <v>200</v>
+        <v>253</v>
+      </c>
+      <c r="D9" s="78" t="s">
+        <v>254</v>
+      </c>
+      <c r="H9" s="64" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>201</v>
+        <v>256</v>
       </c>
       <c r="B10" t="s">
-        <v>202</v>
-      </c>
-      <c r="D10" s="53"/>
+        <v>257</v>
+      </c>
+      <c r="D10" s="77"/>
       <c r="G10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H10" s="40" t="s">
-        <v>204</v>
+        <v>258</v>
+      </c>
+      <c r="H10" s="64" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>205</v>
+        <v>260</v>
       </c>
       <c r="B11" t="s">
-        <v>206</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>207</v>
-      </c>
-      <c r="G11" s="55" t="s">
-        <v>208</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>209</v>
+        <v>261</v>
+      </c>
+      <c r="D11" s="78" t="s">
+        <v>262</v>
+      </c>
+      <c r="G11" s="79" t="s">
+        <v>263</v>
+      </c>
+      <c r="H11" s="64" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="B12" t="s">
-        <v>211</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>212</v>
-      </c>
-      <c r="G12" s="55" t="s">
-        <v>213</v>
-      </c>
-      <c r="H12" s="40" t="s">
-        <v>214</v>
+        <v>266</v>
+      </c>
+      <c r="D12" s="77" t="s">
+        <v>267</v>
+      </c>
+      <c r="G12" s="79" t="s">
+        <v>268</v>
+      </c>
+      <c r="H12" s="64" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="B13" t="s">
-        <v>216</v>
-      </c>
-      <c r="D13" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="G13" s="55" t="s">
-        <v>218</v>
+        <v>271</v>
+      </c>
+      <c r="D13" s="78" t="s">
+        <v>272</v>
+      </c>
+      <c r="G13" s="79" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="14">
-      <c r="D14" s="53" t="s">
-        <v>219</v>
+      <c r="D14" s="77" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>220</v>
+        <v>275</v>
       </c>
       <c r="B15" t="s">
-        <v>221</v>
-      </c>
-      <c r="D15" s="54"/>
+        <v>276</v>
+      </c>
+      <c r="D15" s="78"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="B16" t="s">
-        <v>223</v>
-      </c>
-      <c r="D16" s="53"/>
+        <v>278</v>
+      </c>
+      <c r="D16" s="77"/>
       <c r="G16" t="s">
-        <v>224</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17">
-      <c r="D17" s="54"/>
-      <c r="G17" s="55" t="s">
-        <v>225</v>
+      <c r="D17" s="78"/>
+      <c r="G17" s="79" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>226</v>
-      </c>
-      <c r="D18" s="53"/>
-      <c r="G18" s="42" t="s">
-        <v>227</v>
+        <v>281</v>
+      </c>
+      <c r="D18" s="77"/>
+      <c r="G18" s="66" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="19">
-      <c r="D19" s="54" t="s">
-        <v>228</v>
+      <c r="D19" s="78" t="s">
+        <v>283</v>
       </c>
       <c r="E19" t="s">
-        <v>229</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>230</v>
+        <v>284</v>
+      </c>
+      <c r="G19" s="66" t="s">
+        <v>285</v>
       </c>
       <c r="H19" t="s">
-        <v>231</v>
+        <v>286</v>
       </c>
       <c r="I19" t="s">
-        <v>232</v>
+        <v>287</v>
       </c>
       <c r="J19" t="s">
-        <v>232</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20">
-      <c r="D20" s="53"/>
-      <c r="G20" s="42" t="s">
-        <v>233</v>
+      <c r="D20" s="77"/>
+      <c r="G20" s="66" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="22">
-      <c r="D22" s="53"/>
-      <c r="G22" s="42" t="s">
-        <v>218</v>
+      <c r="D22" s="77"/>
+      <c r="G22" s="66" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="23">
-      <c r="G23" s="55"/>
+      <c r="G23" s="79"/>
     </row>
     <row r="24">
-      <c r="D24" s="53"/>
-      <c r="G24" s="55" t="s">
-        <v>234</v>
+      <c r="D24" s="77"/>
+      <c r="G24" s="79" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="25">
-      <c r="G25" s="42" t="s">
-        <v>235</v>
+      <c r="G25" s="66" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="26">
-      <c r="D26" s="53"/>
-      <c r="G26" s="42" t="s">
-        <v>236</v>
+      <c r="D26" s="77"/>
+      <c r="G26" s="66" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="27">
-      <c r="G27" s="42" t="s">
-        <v>237</v>
+      <c r="G27" s="66" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="28">
-      <c r="D28" s="53"/>
-      <c r="G28" s="42" t="s">
-        <v>230</v>
+      <c r="D28" s="77"/>
+      <c r="G28" s="66" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="35">
-      <c r="D35" s="56" t="s">
-        <v>238</v>
+      <c r="D35" s="80" t="s">
+        <v>293</v>
       </c>
       <c r="E35" t="s">
-        <v>239</v>
-      </c>
-      <c r="F35" s="57" t="s">
-        <v>240</v>
+        <v>294</v>
+      </c>
+      <c r="F35" s="81" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="36">
-      <c r="D36" s="58" t="s">
-        <v>241</v>
+      <c r="D36" s="82" t="s">
+        <v>296</v>
       </c>
       <c r="E36" t="s">
-        <v>242</v>
-      </c>
-      <c r="F36" s="58" t="s">
-        <v>243</v>
+        <v>297</v>
+      </c>
+      <c r="F36" s="82" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="37">
-      <c r="D37" s="57" t="s">
-        <v>244</v>
+      <c r="D37" s="81" t="s">
+        <v>299</v>
       </c>
       <c r="E37" t="s">
-        <v>245</v>
-      </c>
-      <c r="F37" s="57" t="s">
-        <v>246</v>
+        <v>300</v>
+      </c>
+      <c r="F37" s="81" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="38">
-      <c r="D38" s="58" t="s">
-        <v>247</v>
+      <c r="D38" s="82" t="s">
+        <v>302</v>
       </c>
       <c r="E38" t="s">
-        <v>248</v>
-      </c>
-      <c r="F38" s="58" t="s">
-        <v>249</v>
+        <v>303</v>
+      </c>
+      <c r="F38" s="82" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="39">
-      <c r="D39" s="57" t="s">
-        <v>250</v>
+      <c r="D39" s="81" t="s">
+        <v>305</v>
       </c>
       <c r="E39" t="s">
-        <v>251</v>
-      </c>
-      <c r="F39" s="57" t="s">
-        <v>252</v>
+        <v>306</v>
+      </c>
+      <c r="F39" s="81" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>242</v>
-      </c>
-      <c r="F40" s="58" t="s">
-        <v>253</v>
+        <v>297</v>
+      </c>
+      <c r="F40" s="82" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>245</v>
-      </c>
-      <c r="F41" s="57" t="s">
-        <v>254</v>
+        <v>300</v>
+      </c>
+      <c r="F41" s="81" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>255</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>251</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>256</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -4094,6 +5336,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="6" tint="0.59999389629810485"/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScale="100" workbookViewId="0">
       <selection activeCell="D56" activeCellId="0" sqref="D56"/>
@@ -4108,564 +5355,564 @@
   </cols>
   <sheetData>
     <row r="4">
-      <c r="D4" s="38" t="s">
-        <v>257</v>
+      <c r="D4" s="62" t="s">
+        <v>312</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5">
       <c r="D5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E5" s="38">
+        <v>313</v>
+      </c>
+      <c r="E5" s="62">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="D6" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="E6" s="38">
+      <c r="D6" s="66" t="s">
+        <v>314</v>
+      </c>
+      <c r="E6" s="62">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="D7" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="E7" s="38">
+      <c r="D7" s="65" t="s">
+        <v>315</v>
+      </c>
+      <c r="E7" s="62">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="D8" s="42" t="s">
-        <v>261</v>
-      </c>
-      <c r="E8" s="38">
+      <c r="D8" s="66" t="s">
+        <v>316</v>
+      </c>
+      <c r="E8" s="62">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="D9" s="42"/>
-      <c r="E9" s="38"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="62"/>
     </row>
     <row r="10">
-      <c r="D10" s="40" t="s">
-        <v>262</v>
-      </c>
-      <c r="E10" s="38">
+      <c r="D10" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="E10" s="62">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="D11" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="E11" s="38">
+      <c r="D11" s="66" t="s">
+        <v>318</v>
+      </c>
+      <c r="E11" s="62">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="D12" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="E12" s="38">
+      <c r="D12" s="66" t="s">
+        <v>319</v>
+      </c>
+      <c r="E12" s="62">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="D13" s="42" t="s">
-        <v>265</v>
-      </c>
-      <c r="E13" s="38">
+      <c r="D13" s="66" t="s">
+        <v>320</v>
+      </c>
+      <c r="E13" s="62">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
     </row>
     <row r="15">
-      <c r="D15" s="40" t="s">
-        <v>266</v>
-      </c>
-      <c r="E15" s="38">
+      <c r="D15" s="64" t="s">
+        <v>321</v>
+      </c>
+      <c r="E15" s="62">
         <v>2</v>
       </c>
     </row>
     <row r="16">
-      <c r="D16" s="59" t="s">
-        <v>267</v>
-      </c>
-      <c r="E16" s="38">
+      <c r="D16" s="83" t="s">
+        <v>322</v>
+      </c>
+      <c r="E16" s="62">
         <v>2</v>
       </c>
     </row>
     <row r="17">
-      <c r="D17" s="60" t="s">
-        <v>268</v>
-      </c>
-      <c r="E17" s="38">
+      <c r="D17" s="84" t="s">
+        <v>323</v>
+      </c>
+      <c r="E17" s="62">
         <v>2</v>
       </c>
     </row>
     <row r="18">
-      <c r="D18" s="60" t="s">
-        <v>269</v>
-      </c>
-      <c r="E18" s="38">
+      <c r="D18" s="84" t="s">
+        <v>324</v>
+      </c>
+      <c r="E18" s="62">
         <v>2</v>
       </c>
     </row>
     <row r="19">
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
     </row>
     <row r="20">
-      <c r="D20" s="40" t="s">
-        <v>270</v>
-      </c>
-      <c r="E20" s="38">
+      <c r="D20" s="64" t="s">
+        <v>325</v>
+      </c>
+      <c r="E20" s="62">
         <v>2</v>
       </c>
     </row>
     <row r="21">
-      <c r="D21" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="E21" s="38">
+      <c r="D21" s="64" t="s">
+        <v>326</v>
+      </c>
+      <c r="E21" s="62">
         <v>2</v>
       </c>
     </row>
     <row r="22">
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
     </row>
     <row r="23">
-      <c r="D23" s="44"/>
-      <c r="E23" s="42"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="66"/>
     </row>
     <row r="24">
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
     </row>
     <row r="25">
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
     </row>
     <row r="26">
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
     </row>
     <row r="27">
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
     </row>
     <row r="28">
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
     </row>
     <row r="29">
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
     </row>
     <row r="30">
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
     </row>
     <row r="39">
-      <c r="B39" s="61"/>
-      <c r="C39" s="62" t="s">
-        <v>272</v>
-      </c>
-      <c r="D39" s="62" t="s">
-        <v>273</v>
+      <c r="B39" s="85"/>
+      <c r="C39" s="86" t="s">
+        <v>327</v>
+      </c>
+      <c r="D39" s="86" t="s">
+        <v>328</v>
       </c>
       <c r="E39" t="s">
+        <v>199</v>
+      </c>
+      <c r="F39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" s="50">
+        <v>1</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" s="62"/>
+    </row>
+    <row r="41">
+      <c r="C41" s="62" t="s">
+        <v>329</v>
+      </c>
+      <c r="D41" s="66" t="s">
+        <v>330</v>
+      </c>
+      <c r="E41" s="62"/>
+    </row>
+    <row r="42" ht="14.25" customHeight="1">
+      <c r="C42" s="62" t="s">
+        <v>331</v>
+      </c>
+      <c r="D42" s="66" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" s="62" t="s">
+        <v>333</v>
+      </c>
+      <c r="D43" s="66" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" s="87" t="s">
+        <v>335</v>
+      </c>
+      <c r="D44" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="E44" s="88"/>
+      <c r="F44" s="88"/>
+    </row>
+    <row r="45">
+      <c r="C45" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" s="66" t="s">
+        <v>337</v>
+      </c>
+      <c r="E45" s="62"/>
+    </row>
+    <row r="46">
+      <c r="C46" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="F39" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="C40" s="26">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E40" s="38"/>
-    </row>
-    <row r="41">
-      <c r="C41" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="D41" s="42" t="s">
-        <v>276</v>
-      </c>
-      <c r="E41" s="38"/>
-    </row>
-    <row r="42" ht="14.25" customHeight="1">
-      <c r="C42" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="D42" s="42" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="C43" s="38" t="s">
-        <v>279</v>
-      </c>
-      <c r="D43" s="42" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="C44" s="63" t="s">
-        <v>281</v>
-      </c>
-      <c r="D44" s="41" t="s">
-        <v>282</v>
-      </c>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-    </row>
-    <row r="45">
-      <c r="C45" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="D45" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="E45" s="38"/>
-    </row>
-    <row r="46">
-      <c r="C46" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="E46" s="38"/>
+      <c r="D46" s="66" t="s">
+        <v>338</v>
+      </c>
+      <c r="E46" s="62"/>
     </row>
     <row r="47">
-      <c r="C47" s="65">
+      <c r="C47" s="89">
         <v>2</v>
       </c>
-      <c r="D47" s="66" t="s">
-        <v>285</v>
-      </c>
-      <c r="E47" s="38"/>
+      <c r="D47" s="90" t="s">
+        <v>339</v>
+      </c>
+      <c r="E47" s="62"/>
     </row>
     <row r="48">
-      <c r="C48" s="63" t="s">
-        <v>286</v>
-      </c>
-      <c r="D48" s="41" t="s">
-        <v>287</v>
-      </c>
-      <c r="E48" s="38"/>
+      <c r="C48" s="87" t="s">
+        <v>340</v>
+      </c>
+      <c r="D48" s="65" t="s">
+        <v>341</v>
+      </c>
+      <c r="E48" s="62"/>
     </row>
     <row r="49">
-      <c r="C49" s="26">
+      <c r="C49" s="50">
         <v>3</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E49" s="38"/>
+      <c r="D49" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="E49" s="62"/>
     </row>
     <row r="50">
-      <c r="C50" s="63" t="s">
-        <v>108</v>
-      </c>
-      <c r="D50" s="41" t="s">
-        <v>288</v>
-      </c>
-      <c r="F50" s="27" t="s">
-        <v>289</v>
+      <c r="C50" s="87" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" s="65" t="s">
+        <v>342</v>
+      </c>
+      <c r="F50" s="51" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="51">
-      <c r="C51" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="D51" s="67" t="s">
-        <v>290</v>
+      <c r="C51" s="87" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51" s="91" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="52">
-      <c r="C52" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="D52" s="67" t="s">
-        <v>291</v>
+      <c r="C52" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="D52" s="91" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="53">
-      <c r="C53" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="D53" s="67" t="s">
-        <v>292</v>
+      <c r="C53" s="87" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" s="91" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="54">
-      <c r="C54" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="D54" s="67" t="s">
-        <v>293</v>
+      <c r="C54" s="87" t="s">
+        <v>176</v>
+      </c>
+      <c r="D54" s="91" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="55">
-      <c r="C55" s="68">
+      <c r="C55" s="92">
         <v>4</v>
       </c>
-      <c r="D55" s="68" t="s">
-        <v>123</v>
+      <c r="D55" s="92" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="56">
-      <c r="C56" s="62" t="s">
-        <v>124</v>
-      </c>
-      <c r="D56" s="42" t="s">
-        <v>294</v>
+      <c r="C56" s="86" t="s">
+        <v>181</v>
+      </c>
+      <c r="D56" s="66" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="57">
-      <c r="C57" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="D57" s="67" t="s">
-        <v>295</v>
+      <c r="C57" s="86" t="s">
+        <v>182</v>
+      </c>
+      <c r="D57" s="91" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="58">
-      <c r="C58" s="62" t="s">
-        <v>296</v>
-      </c>
-      <c r="D58" s="67" t="s">
-        <v>297</v>
+      <c r="C58" s="86" t="s">
+        <v>350</v>
+      </c>
+      <c r="D58" s="91" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="59">
-      <c r="C59" s="62" t="s">
-        <v>130</v>
-      </c>
-      <c r="D59" s="67" t="s">
-        <v>298</v>
-      </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
+      <c r="C59" s="86" t="s">
+        <v>187</v>
+      </c>
+      <c r="D59" s="91" t="s">
+        <v>352</v>
+      </c>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
     </row>
     <row r="60">
-      <c r="C60" s="68">
+      <c r="C60" s="92">
         <v>5</v>
       </c>
-      <c r="D60" s="68" t="s">
-        <v>132</v>
+      <c r="D60" s="92" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="61">
-      <c r="C61" s="62" t="s">
-        <v>299</v>
-      </c>
-      <c r="D61" s="42" t="s">
-        <v>300</v>
+      <c r="C61" s="86" t="s">
+        <v>353</v>
+      </c>
+      <c r="D61" s="66" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="62">
-      <c r="C62" s="62" t="s">
-        <v>301</v>
-      </c>
-      <c r="D62" s="67" t="s">
-        <v>302</v>
+      <c r="C62" s="86" t="s">
+        <v>355</v>
+      </c>
+      <c r="D62" s="91" t="s">
+        <v>356</v>
       </c>
       <c r="F62" t="s">
-        <v>303</v>
+        <v>357</v>
       </c>
     </row>
     <row r="63">
-      <c r="C63" s="62" t="s">
-        <v>304</v>
-      </c>
-      <c r="D63" s="67" t="s">
-        <v>305</v>
+      <c r="C63" s="86" t="s">
+        <v>358</v>
+      </c>
+      <c r="D63" s="91" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="64">
-      <c r="C64" s="62" t="s">
-        <v>306</v>
-      </c>
-      <c r="D64" s="67" t="s">
-        <v>307</v>
+      <c r="C64" s="86" t="s">
+        <v>360</v>
+      </c>
+      <c r="D64" s="91" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="65">
-      <c r="C65" s="68">
+      <c r="C65" s="92">
         <v>6</v>
       </c>
-      <c r="D65" s="68" t="s">
-        <v>308</v>
+      <c r="D65" s="92" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="66">
-      <c r="C66" s="62" t="s">
-        <v>309</v>
-      </c>
-      <c r="D66" s="42" t="s">
-        <v>310</v>
+      <c r="C66" s="86" t="s">
+        <v>363</v>
+      </c>
+      <c r="D66" s="66" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="67">
-      <c r="C67" s="69" t="s">
-        <v>311</v>
-      </c>
-      <c r="D67" s="45" t="s">
-        <v>312</v>
+      <c r="C67" s="93" t="s">
+        <v>365</v>
+      </c>
+      <c r="D67" s="69" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="68">
-      <c r="C68" s="62" t="s">
-        <v>313</v>
-      </c>
-      <c r="D68" s="67" t="s">
-        <v>314</v>
+      <c r="C68" s="86" t="s">
+        <v>367</v>
+      </c>
+      <c r="D68" s="91" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="69">
-      <c r="C69" s="69" t="s">
-        <v>315</v>
-      </c>
-      <c r="D69" s="67" t="s">
-        <v>316</v>
+      <c r="C69" s="93" t="s">
+        <v>369</v>
+      </c>
+      <c r="D69" s="91" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="70">
-      <c r="C70" s="62" t="s">
-        <v>317</v>
-      </c>
-      <c r="D70" s="67" t="s">
-        <v>318</v>
+      <c r="C70" s="86" t="s">
+        <v>371</v>
+      </c>
+      <c r="D70" s="91" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="71">
-      <c r="C71" s="68">
+      <c r="C71" s="92">
         <v>7</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>319</v>
+      <c r="D71" s="25" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="72">
-      <c r="C72" s="62" t="s">
-        <v>320</v>
-      </c>
-      <c r="D72" s="42" t="s">
-        <v>321</v>
+      <c r="C72" s="86" t="s">
+        <v>374</v>
+      </c>
+      <c r="D72" s="66" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="73">
-      <c r="C73" s="68">
+      <c r="C73" s="92">
         <v>8</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>322</v>
+      <c r="D73" s="25" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="74">
-      <c r="C74" s="62" t="s">
-        <v>323</v>
-      </c>
-      <c r="D74" s="42" t="s">
-        <v>324</v>
+      <c r="C74" s="86" t="s">
+        <v>377</v>
+      </c>
+      <c r="D74" s="66" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="75">
-      <c r="C75" s="68">
+      <c r="C75" s="92">
         <v>9</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>325</v>
+      <c r="D75" s="25" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="76">
-      <c r="C76" s="62" t="s">
-        <v>326</v>
-      </c>
-      <c r="D76" s="42" t="s">
-        <v>327</v>
+      <c r="C76" s="86" t="s">
+        <v>380</v>
+      </c>
+      <c r="D76" s="66" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="77">
-      <c r="C77" s="62" t="s">
-        <v>328</v>
-      </c>
-      <c r="D77" s="67" t="s">
-        <v>329</v>
+      <c r="C77" s="86" t="s">
+        <v>382</v>
+      </c>
+      <c r="D77" s="91" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="78">
-      <c r="C78" s="62" t="s">
-        <v>330</v>
-      </c>
-      <c r="D78" s="67" t="s">
-        <v>331</v>
+      <c r="C78" s="86" t="s">
+        <v>384</v>
+      </c>
+      <c r="D78" s="91" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="79">
-      <c r="C79" s="68">
+      <c r="C79" s="92">
         <v>10</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>332</v>
+      <c r="D79" s="25" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="80">
-      <c r="C80" s="62" t="s">
-        <v>333</v>
-      </c>
-      <c r="D80" s="42" t="s">
-        <v>334</v>
-      </c>
-      <c r="E80" s="38"/>
+      <c r="C80" s="86" t="s">
+        <v>387</v>
+      </c>
+      <c r="D80" s="66" t="s">
+        <v>388</v>
+      </c>
+      <c r="E80" s="62"/>
     </row>
     <row r="81">
-      <c r="C81" s="62" t="s">
-        <v>335</v>
-      </c>
-      <c r="D81" s="67" t="s">
-        <v>336</v>
+      <c r="C81" s="86" t="s">
+        <v>389</v>
+      </c>
+      <c r="D81" s="91" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="82">
-      <c r="C82" s="68">
+      <c r="C82" s="92">
         <v>11</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>337</v>
+      <c r="D82" s="25" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="83">
-      <c r="C83" s="62" t="s">
-        <v>338</v>
-      </c>
-      <c r="D83" s="42" t="s">
-        <v>339</v>
+      <c r="C83" s="86" t="s">
+        <v>392</v>
+      </c>
+      <c r="D83" s="66" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="84">
-      <c r="C84" s="62" t="s">
-        <v>340</v>
-      </c>
-      <c r="D84" s="42" t="s">
-        <v>341</v>
+      <c r="C84" s="86" t="s">
+        <v>394</v>
+      </c>
+      <c r="D84" s="66" t="s">
+        <v>395</v>
       </c>
     </row>
   </sheetData>
